--- a/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
+++ b/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B897E-29C6-4617-B745-1FA71887068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924A571-6E55-474A-9725-BCCDA451E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J2">
         <v>2.1500000000000004</v>
@@ -573,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>2.0499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="J3">
         <v>1.74</v>
@@ -608,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J4">
         <v>1.97</v>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J5">
         <v>2.3600000000000003</v>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>2.58</v>
+        <v>4.58</v>
       </c>
       <c r="J6">
         <v>2.1900000000000004</v>
@@ -713,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>2.4500000000000002</v>
+        <v>4.45</v>
       </c>
       <c r="J7">
         <v>1.46</v>
@@ -748,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="J8">
         <v>2.1500000000000004</v>
@@ -783,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="I9">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -818,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="I10">
-        <v>1.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="J10">
         <v>1.21</v>
@@ -853,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="I11">
-        <v>2.2799999999999994</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="J11">
         <v>1.5899999999999999</v>
@@ -888,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1.65</v>
+        <v>3.65</v>
       </c>
       <c r="J12">
         <v>1.74</v>
@@ -923,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J13">
         <v>1.44</v>
@@ -958,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>2.7799999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J14">
         <v>1.66</v>
@@ -993,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>2.16</v>
+        <v>4.16</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1028,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
         <v>2.4300000000000002</v>
@@ -1063,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>1.6800000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>2.0300000000000002</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
         <v>1.64</v>
@@ -1168,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.0600000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="J20">
         <v>1.1299999999999999</v>
@@ -1203,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2.8499999999999996</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J21">
         <v>1.1499999999999999</v>
@@ -1238,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="I22">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J22">
         <v>1.63</v>
@@ -1273,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="I23">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J23">
         <v>1.01</v>
@@ -1308,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="I24">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J24">
         <v>2.1100000000000003</v>
@@ -1343,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>2.1799999999999997</v>
+        <v>4.18</v>
       </c>
       <c r="J25">
         <v>1.64</v>
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J26">
         <v>2.3600000000000003</v>
@@ -1413,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J27">
         <v>2.2000000000000002</v>
@@ -1448,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="J28">
         <v>1.47</v>
@@ -1483,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J29">
         <v>2.4000000000000004</v>
@@ -1518,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="I30">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J30">
         <v>2.4300000000000002</v>
@@ -1553,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>2.54</v>
+        <v>4.54</v>
       </c>
       <c r="J31">
         <v>1.1399999999999999</v>
@@ -1588,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="I32">
-        <v>1.9300000000000002</v>
+        <v>3.93</v>
       </c>
       <c r="J32">
         <v>1.0899999999999999</v>
@@ -1623,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J33">
         <v>1.0999999999999999</v>
@@ -1658,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J34">
         <v>1.63</v>
@@ -1693,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J35">
         <v>1.3</v>
@@ -1728,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J36">
         <v>2.21</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J37">
         <v>2.08</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J38">
         <v>1.41</v>
@@ -1833,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J39">
         <v>1.78</v>
@@ -1868,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="I40">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J40">
         <v>2.12</v>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.54</v>
+        <v>3.54</v>
       </c>
       <c r="J41">
         <v>1.06</v>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J42">
         <v>1.8699999999999999</v>
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.6099999999999999</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J44">
         <v>1.1399999999999999</v>
@@ -2043,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J45">
         <v>1.75</v>
@@ -2078,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="I46">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J46">
         <v>1.89</v>
@@ -2113,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>2.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J47">
         <v>1.3699999999999999</v>
@@ -2148,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="I48">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J48">
         <v>1.3499999999999999</v>
@@ -2183,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J49">
         <v>2.4400000000000004</v>
@@ -2218,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="I50">
-        <v>2.5600000000000005</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="J50">
         <v>1.76</v>
@@ -2253,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="I51">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J51">
         <v>1.99</v>
@@ -2288,7 +2291,7 @@
         <v>16</v>
       </c>
       <c r="I52">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J52">
         <v>2.02</v>
@@ -2323,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="I53">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J53">
         <v>1.45</v>
@@ -2358,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="I54">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J54">
         <v>2.0700000000000003</v>
@@ -2393,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="I55">
-        <v>2.66</v>
+        <v>4.66</v>
       </c>
       <c r="J55">
         <v>2.4400000000000004</v>
@@ -2428,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="I56">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J56">
         <v>2.4300000000000002</v>
@@ -2463,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="I57">
-        <v>1.77</v>
+        <v>3.77</v>
       </c>
       <c r="J57">
         <v>1.97</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J58">
         <v>1.68</v>
@@ -2533,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="I59">
-        <v>1.88</v>
+        <v>3.88</v>
       </c>
       <c r="J59">
         <v>1.18</v>
@@ -2568,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="I60">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J60">
         <v>1.21</v>
@@ -2603,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="I61">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J61">
         <v>2.14</v>
@@ -2638,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="I62">
-        <v>2.2699999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J62">
         <v>2.04</v>
@@ -2673,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>2.58</v>
+        <v>4.58</v>
       </c>
       <c r="J63">
         <v>1.65</v>
@@ -2708,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="I64">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J64">
         <v>2.0500000000000003</v>
@@ -2743,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="I65">
-        <v>1.5099999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2778,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="I66">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J66">
         <v>1.92</v>
@@ -2813,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J67">
         <v>1.45</v>
@@ -2848,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="I68">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J68">
         <v>1.5899999999999999</v>
@@ -2883,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="I69">
-        <v>1.81</v>
+        <v>3.81</v>
       </c>
       <c r="J69">
         <v>1.63</v>
@@ -2918,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J70">
         <v>1.52</v>
@@ -2953,7 +2956,7 @@
         <v>16</v>
       </c>
       <c r="I71">
-        <v>1.5099999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="J71">
         <v>1.31</v>
@@ -2988,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="I72">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J72">
         <v>0.96</v>
@@ -3023,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="I73">
-        <v>2.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J73">
         <v>2.4000000000000004</v>
@@ -3058,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="I74">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J74">
         <v>1.93</v>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>1.9900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="J75">
         <v>1.69</v>
@@ -3128,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>2.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J76">
         <v>1.9</v>
@@ -3163,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="I77">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J77">
         <v>0.99</v>
@@ -3198,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J78">
         <v>1.9599999999999997</v>
@@ -3233,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J79">
         <v>0.97</v>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J80">
         <v>2.12</v>
@@ -3303,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J81">
         <v>2.31</v>
@@ -3338,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J82">
         <v>1.66</v>
@@ -3373,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2.2599999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="J83">
         <v>1.39</v>
@@ -3408,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="I84">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J84">
         <v>1.64</v>
@@ -3443,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J85">
         <v>2.31</v>
@@ -3478,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J86">
         <v>1.43</v>
@@ -3513,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J87">
         <v>1.44</v>
@@ -3548,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J88">
         <v>1.94</v>
@@ -3583,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="J89">
         <v>1.25</v>
@@ -3618,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="I90">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J90">
         <v>1.9999999999999998</v>
@@ -3653,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J91">
         <v>1.8299999999999998</v>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J92">
         <v>1.28</v>
@@ -3723,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J93">
         <v>2.3200000000000003</v>
@@ -3758,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="I94">
-        <v>2.16</v>
+        <v>4.16</v>
       </c>
       <c r="J94">
         <v>2.4200000000000004</v>
@@ -3793,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="I95">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J95">
         <v>1.39</v>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>1.7200000000000002</v>
+        <v>3.72</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -3863,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J97">
         <v>1.0999999999999999</v>
@@ -3898,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>2.5600000000000005</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="J98">
         <v>2.0900000000000003</v>
@@ -3933,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J99">
         <v>1.1299999999999999</v>
@@ -3968,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>1.8399999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="J100">
         <v>1.66</v>
@@ -4003,7 +4006,7 @@
         <v>16</v>
       </c>
       <c r="I101">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J101">
         <v>2.1300000000000003</v>
@@ -4038,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J102">
         <v>1.8</v>
@@ -4073,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J103">
         <v>2.4400000000000004</v>
@@ -4108,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="I104">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J104">
         <v>0.98</v>
@@ -4143,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="I105">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J105">
         <v>2.0300000000000002</v>
@@ -4153,6 +4156,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
+++ b/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924A571-6E55-474A-9725-BCCDA451E962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B897E-29C6-4617-B745-1FA71887068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$105</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,7 +472,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J2">
         <v>2.1500000000000004</v>
@@ -576,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J3">
         <v>1.74</v>
@@ -611,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
         <v>1.97</v>
@@ -646,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J5">
         <v>2.3600000000000003</v>
@@ -681,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>4.58</v>
+        <v>2.58</v>
       </c>
       <c r="J6">
         <v>2.1900000000000004</v>
@@ -716,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>4.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J7">
         <v>1.46</v>
@@ -751,7 +748,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="J8">
         <v>2.1500000000000004</v>
@@ -786,7 +783,7 @@
         <v>16</v>
       </c>
       <c r="I9">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -821,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="I10">
-        <v>3.53</v>
+        <v>1.5299999999999998</v>
       </c>
       <c r="J10">
         <v>1.21</v>
@@ -856,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="I11">
-        <v>4.2799999999999994</v>
+        <v>2.2799999999999994</v>
       </c>
       <c r="J11">
         <v>1.5899999999999999</v>
@@ -891,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>3.65</v>
+        <v>1.65</v>
       </c>
       <c r="J12">
         <v>1.74</v>
@@ -926,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>4.1500000000000004</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="J13">
         <v>1.44</v>
@@ -961,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>5.01</v>
+        <v>2.7799999999999994</v>
       </c>
       <c r="J14">
         <v>1.66</v>
@@ -996,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>4.16</v>
+        <v>2.16</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1031,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>5.01</v>
+        <v>2.84</v>
       </c>
       <c r="J16">
         <v>2.4300000000000002</v>
@@ -1066,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>3.68</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -1101,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>2.0300000000000002</v>
@@ -1136,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J19">
         <v>1.64</v>
@@ -1171,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>4.0600000000000005</v>
+        <v>2.0600000000000005</v>
       </c>
       <c r="J20">
         <v>1.1299999999999999</v>
@@ -1206,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>4.8499999999999996</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="J21">
         <v>1.1499999999999999</v>
@@ -1241,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="I22">
-        <v>4.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J22">
         <v>1.63</v>
@@ -1276,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="I23">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J23">
         <v>1.01</v>
@@ -1311,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="I24">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J24">
         <v>2.1100000000000003</v>
@@ -1346,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>4.18</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="J25">
         <v>1.64</v>
@@ -1381,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>3.87</v>
+        <v>1.87</v>
       </c>
       <c r="J26">
         <v>2.3600000000000003</v>
@@ -1416,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J27">
         <v>2.2000000000000002</v>
@@ -1451,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="J28">
         <v>1.47</v>
@@ -1486,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J29">
         <v>2.4000000000000004</v>
@@ -1521,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="I30">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J30">
         <v>2.4300000000000002</v>
@@ -1556,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>4.54</v>
+        <v>2.54</v>
       </c>
       <c r="J31">
         <v>1.1399999999999999</v>
@@ -1591,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="I32">
-        <v>3.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="J32">
         <v>1.0899999999999999</v>
@@ -1626,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J33">
         <v>1.0999999999999999</v>
@@ -1661,7 +1658,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>3.62</v>
+        <v>1.62</v>
       </c>
       <c r="J34">
         <v>1.63</v>
@@ -1696,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>3.87</v>
+        <v>1.87</v>
       </c>
       <c r="J35">
         <v>1.3</v>
@@ -1731,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J36">
         <v>2.21</v>
@@ -1766,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J37">
         <v>2.08</v>
@@ -1801,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J38">
         <v>1.41</v>
@@ -1836,7 +1833,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>3.61</v>
+        <v>1.6099999999999999</v>
       </c>
       <c r="J39">
         <v>1.78</v>
@@ -1871,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="I40">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J40">
         <v>2.12</v>
@@ -1906,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>3.54</v>
+        <v>1.54</v>
       </c>
       <c r="J41">
         <v>1.06</v>
@@ -1941,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>4.1400000000000006</v>
+        <v>2.1400000000000006</v>
       </c>
       <c r="J42">
         <v>1.8699999999999999</v>
@@ -1976,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J43">
         <v>1.6099999999999999</v>
@@ -2011,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>3.8</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J44">
         <v>1.1399999999999999</v>
@@ -2046,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>4.0999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J45">
         <v>1.75</v>
@@ -2081,7 +2078,7 @@
         <v>16</v>
       </c>
       <c r="I46">
-        <v>4.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J46">
         <v>1.89</v>
@@ -2116,7 +2113,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>5.01</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J47">
         <v>1.3699999999999999</v>
@@ -2151,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="I48">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="J48">
         <v>1.3499999999999999</v>
@@ -2186,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J49">
         <v>2.4400000000000004</v>
@@ -2221,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="I50">
-        <v>4.5600000000000005</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="J50">
         <v>1.76</v>
@@ -2256,7 +2253,7 @@
         <v>16</v>
       </c>
       <c r="I51">
-        <v>3.52</v>
+        <v>1.52</v>
       </c>
       <c r="J51">
         <v>1.99</v>
@@ -2291,7 +2288,7 @@
         <v>16</v>
       </c>
       <c r="I52">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J52">
         <v>2.02</v>
@@ -2326,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="I53">
-        <v>4.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J53">
         <v>1.45</v>
@@ -2361,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="I54">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J54">
         <v>2.0700000000000003</v>
@@ -2396,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="I55">
-        <v>4.66</v>
+        <v>2.66</v>
       </c>
       <c r="J55">
         <v>2.4400000000000004</v>
@@ -2431,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="I56">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J56">
         <v>2.4300000000000002</v>
@@ -2466,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="I57">
-        <v>3.77</v>
+        <v>1.77</v>
       </c>
       <c r="J57">
         <v>1.97</v>
@@ -2501,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J58">
         <v>1.68</v>
@@ -2536,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="I59">
-        <v>3.88</v>
+        <v>1.88</v>
       </c>
       <c r="J59">
         <v>1.18</v>
@@ -2571,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="I60">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J60">
         <v>1.21</v>
@@ -2606,7 +2603,7 @@
         <v>16</v>
       </c>
       <c r="I61">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J61">
         <v>2.14</v>
@@ -2641,7 +2638,7 @@
         <v>16</v>
       </c>
       <c r="I62">
-        <v>4.2699999999999996</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="J62">
         <v>2.04</v>
@@ -2676,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>4.58</v>
+        <v>2.58</v>
       </c>
       <c r="J63">
         <v>1.65</v>
@@ -2711,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="I64">
-        <v>4.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J64">
         <v>2.0500000000000003</v>
@@ -2746,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="I65">
-        <v>3.51</v>
+        <v>1.5099999999999998</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2781,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="I66">
-        <v>4.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J66">
         <v>1.92</v>
@@ -2816,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>3.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="J67">
         <v>1.45</v>
@@ -2851,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="I68">
-        <v>4.93</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J68">
         <v>1.5899999999999999</v>
@@ -2886,7 +2883,7 @@
         <v>16</v>
       </c>
       <c r="I69">
-        <v>3.81</v>
+        <v>1.81</v>
       </c>
       <c r="J69">
         <v>1.63</v>
@@ -2921,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>4.42</v>
+        <v>2.42</v>
       </c>
       <c r="J70">
         <v>1.52</v>
@@ -2956,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="I71">
-        <v>3.51</v>
+        <v>1.5099999999999998</v>
       </c>
       <c r="J71">
         <v>1.31</v>
@@ -2991,7 +2988,7 @@
         <v>16</v>
       </c>
       <c r="I72">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="J72">
         <v>0.96</v>
@@ -3026,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="I73">
-        <v>5.01</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J73">
         <v>2.4000000000000004</v>
@@ -3061,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="I74">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J74">
         <v>1.93</v>
@@ -3096,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>3.99</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="J75">
         <v>1.69</v>
@@ -3131,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>5.01</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J76">
         <v>1.9</v>
@@ -3166,7 +3163,7 @@
         <v>16</v>
       </c>
       <c r="I77">
-        <v>3.76</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J77">
         <v>0.99</v>
@@ -3201,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>4.09</v>
+        <v>2.09</v>
       </c>
       <c r="J78">
         <v>1.9599999999999997</v>
@@ -3236,7 +3233,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J79">
         <v>0.97</v>
@@ -3271,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="J80">
         <v>2.12</v>
@@ -3306,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J81">
         <v>2.31</v>
@@ -3341,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>3.62</v>
+        <v>1.62</v>
       </c>
       <c r="J82">
         <v>1.66</v>
@@ -3376,7 +3373,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>4.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J83">
         <v>1.39</v>
@@ -3411,7 +3408,7 @@
         <v>16</v>
       </c>
       <c r="I84">
-        <v>4.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J84">
         <v>1.64</v>
@@ -3446,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J85">
         <v>2.31</v>
@@ -3481,7 +3478,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J86">
         <v>1.43</v>
@@ -3516,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J87">
         <v>1.44</v>
@@ -3551,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J88">
         <v>1.94</v>
@@ -3586,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="J89">
         <v>1.25</v>
@@ -3621,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="I90">
-        <v>4.0999999999999996</v>
+        <v>2.0999999999999996</v>
       </c>
       <c r="J90">
         <v>1.9999999999999998</v>
@@ -3656,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J91">
         <v>1.8299999999999998</v>
@@ -3691,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>4.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J92">
         <v>1.28</v>
@@ -3726,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>4.29</v>
+        <v>2.29</v>
       </c>
       <c r="J93">
         <v>2.3200000000000003</v>
@@ -3761,7 +3758,7 @@
         <v>16</v>
       </c>
       <c r="I94">
-        <v>4.16</v>
+        <v>2.16</v>
       </c>
       <c r="J94">
         <v>2.4200000000000004</v>
@@ -3796,7 +3793,7 @@
         <v>16</v>
       </c>
       <c r="I95">
-        <v>4.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J95">
         <v>1.39</v>
@@ -3831,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>3.72</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -3866,7 +3863,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>4.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J97">
         <v>1.0999999999999999</v>
@@ -3901,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>4.5600000000000005</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="J98">
         <v>2.0900000000000003</v>
@@ -3936,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J99">
         <v>1.1299999999999999</v>
@@ -3971,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>3.84</v>
+        <v>1.8399999999999999</v>
       </c>
       <c r="J100">
         <v>1.66</v>
@@ -4006,7 +4003,7 @@
         <v>16</v>
       </c>
       <c r="I101">
-        <v>3.76</v>
+        <v>1.7599999999999998</v>
       </c>
       <c r="J101">
         <v>2.1300000000000003</v>
@@ -4041,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>4.7200000000000006</v>
+        <v>2.7200000000000006</v>
       </c>
       <c r="J102">
         <v>1.8</v>
@@ -4076,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>4.09</v>
+        <v>2.09</v>
       </c>
       <c r="J103">
         <v>2.4400000000000004</v>
@@ -4111,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="I104">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J104">
         <v>0.98</v>
@@ -4146,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="I105">
-        <v>3.57</v>
+        <v>1.5699999999999998</v>
       </c>
       <c r="J105">
         <v>2.0300000000000002</v>
@@ -4156,7 +4153,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
+++ b/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B897E-29C6-4617-B745-1FA71887068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F16F6AD-5B44-4D0E-BEA0-42BF49E3ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J2">
         <v>2.1500000000000004</v>
@@ -573,7 +576,7 @@
         <v>16</v>
       </c>
       <c r="I3">
-        <v>2.0499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="J3">
         <v>1.74</v>
@@ -608,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="I4">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J4">
         <v>1.97</v>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J5">
         <v>2.3600000000000003</v>
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <v>2.58</v>
+        <v>4.58</v>
       </c>
       <c r="J6">
         <v>2.1900000000000004</v>
@@ -713,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <v>2.4500000000000002</v>
+        <v>4.45</v>
       </c>
       <c r="J7">
         <v>1.46</v>
@@ -748,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="J8">
         <v>2.1500000000000004</v>
@@ -783,7 +786,7 @@
         <v>16</v>
       </c>
       <c r="I9">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -818,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="I10">
-        <v>1.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="J10">
         <v>1.21</v>
@@ -853,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="I11">
-        <v>2.2799999999999994</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="J11">
         <v>1.5899999999999999</v>
@@ -888,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="I12">
-        <v>1.65</v>
+        <v>3.65</v>
       </c>
       <c r="J12">
         <v>1.74</v>
@@ -923,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J13">
         <v>1.44</v>
@@ -958,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>2.7799999999999994</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="J14">
         <v>1.66</v>
@@ -993,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>2.16</v>
+        <v>4.16</v>
       </c>
       <c r="J15">
         <v>1.3</v>
@@ -1028,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J16">
         <v>2.4300000000000002</v>
@@ -1063,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="I17">
-        <v>1.6800000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>2.0300000000000002</v>
@@ -1133,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="I19">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
         <v>1.64</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1168,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.0600000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="J20">
         <v>1.1299999999999999</v>
@@ -1203,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>2.8499999999999996</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="J21">
         <v>1.1499999999999999</v>
@@ -1238,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="I22">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="J22">
         <v>1.63</v>
@@ -1273,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="I23">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J23">
         <v>1.01</v>
@@ -1308,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="I24">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J24">
         <v>2.1100000000000003</v>
@@ -1343,7 +1346,7 @@
         <v>16</v>
       </c>
       <c r="I25">
-        <v>2.1799999999999997</v>
+        <v>4.18</v>
       </c>
       <c r="J25">
         <v>1.64</v>
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="I26">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J26">
         <v>2.3600000000000003</v>
@@ -1404,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
       </c>
       <c r="I27">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J27">
         <v>2.2000000000000002</v>
@@ -1448,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="I28">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="J28">
         <v>1.47</v>
@@ -1483,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J29">
         <v>2.4000000000000004</v>
@@ -1518,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="I30">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J30">
         <v>2.4300000000000002</v>
@@ -1553,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>2.54</v>
+        <v>4.54</v>
       </c>
       <c r="J31">
         <v>1.1399999999999999</v>
@@ -1588,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="I32">
-        <v>1.9300000000000002</v>
+        <v>3.93</v>
       </c>
       <c r="J32">
         <v>1.0899999999999999</v>
@@ -1614,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
       </c>
       <c r="I33">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J33">
         <v>1.0999999999999999</v>
@@ -1658,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="I34">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J34">
         <v>1.63</v>
@@ -1693,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="I35">
-        <v>1.87</v>
+        <v>3.87</v>
       </c>
       <c r="J35">
         <v>1.3</v>
@@ -1728,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J36">
         <v>2.21</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J37">
         <v>2.08</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J38">
         <v>1.41</v>
@@ -1833,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="I39">
-        <v>1.6099999999999999</v>
+        <v>3.61</v>
       </c>
       <c r="J39">
         <v>1.78</v>
@@ -1868,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="I40">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J40">
         <v>2.12</v>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>1.54</v>
+        <v>3.54</v>
       </c>
       <c r="J41">
         <v>1.06</v>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>2.1400000000000006</v>
+        <v>4.1400000000000006</v>
       </c>
       <c r="J42">
         <v>1.8699999999999999</v>
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J43">
         <v>1.6099999999999999</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J44">
         <v>1.1399999999999999</v>
@@ -2043,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J45">
         <v>1.75</v>
@@ -2078,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="I46">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J46">
         <v>1.89</v>
@@ -2113,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>2.9700000000000006</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J47">
         <v>1.3699999999999999</v>
@@ -2148,7 +2151,7 @@
         <v>16</v>
       </c>
       <c r="I48">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="J48">
         <v>1.3499999999999999</v>
@@ -2183,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="I49">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J49">
         <v>2.4400000000000004</v>
@@ -2218,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="I50">
-        <v>2.5600000000000005</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="J50">
         <v>1.76</v>
@@ -2253,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="I51">
-        <v>1.52</v>
+        <v>3.52</v>
       </c>
       <c r="J51">
         <v>1.99</v>
@@ -2282,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>16</v>
       </c>
       <c r="I52">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J52">
         <v>2.02</v>
@@ -2323,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="I53">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J53">
         <v>1.45</v>
@@ -2358,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="I54">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J54">
         <v>2.0700000000000003</v>
@@ -2393,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="I55">
-        <v>2.66</v>
+        <v>4.66</v>
       </c>
       <c r="J55">
         <v>2.4400000000000004</v>
@@ -2428,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="I56">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J56">
         <v>2.4300000000000002</v>
@@ -2463,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="I57">
-        <v>1.77</v>
+        <v>3.77</v>
       </c>
       <c r="J57">
         <v>1.97</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J58">
         <v>1.68</v>
@@ -2533,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="I59">
-        <v>1.88</v>
+        <v>3.88</v>
       </c>
       <c r="J59">
         <v>1.18</v>
@@ -2568,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="I60">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J60">
         <v>1.21</v>
@@ -2603,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="I61">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J61">
         <v>2.14</v>
@@ -2638,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="I62">
-        <v>2.2699999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J62">
         <v>2.04</v>
@@ -2673,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>2.58</v>
+        <v>4.58</v>
       </c>
       <c r="J63">
         <v>1.65</v>
@@ -2708,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="I64">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J64">
         <v>2.0500000000000003</v>
@@ -2743,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="I65">
-        <v>1.5099999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2778,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="I66">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J66">
         <v>1.92</v>
@@ -2813,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>1.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="J67">
         <v>1.45</v>
@@ -2848,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="I68">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J68">
         <v>1.5899999999999999</v>
@@ -2883,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="I69">
-        <v>1.81</v>
+        <v>3.81</v>
       </c>
       <c r="J69">
         <v>1.63</v>
@@ -2918,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>2.42</v>
+        <v>4.42</v>
       </c>
       <c r="J70">
         <v>1.52</v>
@@ -2944,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
       </c>
       <c r="I71">
-        <v>1.5099999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="J71">
         <v>1.31</v>
@@ -2988,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="I72">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J72">
         <v>0.96</v>
@@ -3023,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="I73">
-        <v>2.9700000000000006</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J73">
         <v>2.4000000000000004</v>
@@ -3058,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="I74">
-        <v>2.96</v>
+        <v>4.96</v>
       </c>
       <c r="J74">
         <v>1.93</v>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>1.9900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="J75">
         <v>1.69</v>
@@ -3128,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J76">
         <v>1.9</v>
@@ -3163,7 +3166,7 @@
         <v>16</v>
       </c>
       <c r="I77">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J77">
         <v>0.99</v>
@@ -3198,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="I78">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J78">
         <v>1.9599999999999997</v>
@@ -3233,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="I79">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J79">
         <v>0.97</v>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="J80">
         <v>2.12</v>
@@ -3303,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="I81">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J81">
         <v>2.31</v>
@@ -3338,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="I82">
-        <v>1.62</v>
+        <v>3.62</v>
       </c>
       <c r="J82">
         <v>1.66</v>
@@ -3373,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="I83">
-        <v>2.2599999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="J83">
         <v>1.39</v>
@@ -3408,7 +3411,7 @@
         <v>16</v>
       </c>
       <c r="I84">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J84">
         <v>1.64</v>
@@ -3443,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J85">
         <v>2.31</v>
@@ -3478,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="I86">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J86">
         <v>1.43</v>
@@ -3504,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3513,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="I87">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J87">
         <v>1.44</v>
@@ -3548,7 +3551,7 @@
         <v>11</v>
       </c>
       <c r="I88">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J88">
         <v>1.94</v>
@@ -3583,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="J89">
         <v>1.25</v>
@@ -3618,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="I90">
-        <v>2.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J90">
         <v>1.9999999999999998</v>
@@ -3653,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J91">
         <v>1.8299999999999998</v>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.5499999999999998</v>
+        <v>4.55</v>
       </c>
       <c r="J92">
         <v>1.28</v>
@@ -3723,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>2.29</v>
+        <v>4.29</v>
       </c>
       <c r="J93">
         <v>2.3200000000000003</v>
@@ -3758,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="I94">
-        <v>2.16</v>
+        <v>4.16</v>
       </c>
       <c r="J94">
         <v>2.4200000000000004</v>
@@ -3793,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="I95">
-        <v>2.0099999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="J95">
         <v>1.39</v>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>1.7200000000000002</v>
+        <v>3.72</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -3863,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>2.5099999999999998</v>
+        <v>4.51</v>
       </c>
       <c r="J97">
         <v>1.0999999999999999</v>
@@ -3898,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>2.5600000000000005</v>
+        <v>4.5600000000000005</v>
       </c>
       <c r="J98">
         <v>2.0900000000000003</v>
@@ -3933,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J99">
         <v>1.1299999999999999</v>
@@ -3968,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="I100">
-        <v>1.8399999999999999</v>
+        <v>3.84</v>
       </c>
       <c r="J100">
         <v>1.66</v>
@@ -4003,7 +4006,7 @@
         <v>16</v>
       </c>
       <c r="I101">
-        <v>1.7599999999999998</v>
+        <v>3.76</v>
       </c>
       <c r="J101">
         <v>2.1300000000000003</v>
@@ -4038,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>2.7200000000000006</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="J102">
         <v>1.8</v>
@@ -4073,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J103">
         <v>2.4400000000000004</v>
@@ -4108,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="I104">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J104">
         <v>0.98</v>
@@ -4143,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="I105">
-        <v>1.5699999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="J105">
         <v>2.0300000000000002</v>
@@ -4153,6 +4156,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
+++ b/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B897E-29C6-4617-B745-1FA71887068D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB879718-BF43-42F8-B0BE-A9D7D5A3EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1404,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -1614,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>16</v>
@@ -2944,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -3504,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4153,6 +4156,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
+++ b/Conditions/Version_3/PAL_Deterministic Schedule_V3_H2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F16F6AD-5B44-4D0E-BEA0-42BF49E3ECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90FC4D-F78A-444A-851D-ED05DC65BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J2">
         <v>2.1500000000000004</v>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>4.71</v>
+        <v>5.01</v>
       </c>
       <c r="J8">
         <v>2.1500000000000004</v>
@@ -961,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="I14">
-        <v>4.7799999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J14">
         <v>1.66</v>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J16">
         <v>2.4300000000000002</v>
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="I21">
-        <v>4.8499999999999996</v>
+        <v>5.01</v>
       </c>
       <c r="J21">
         <v>1.1499999999999999</v>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J43">
         <v>1.6099999999999999</v>
@@ -2116,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>4.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J47">
         <v>1.3699999999999999</v>
@@ -2851,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="I68">
-        <v>4.93</v>
+        <v>5.01</v>
       </c>
       <c r="J68">
         <v>1.5899999999999999</v>
@@ -3026,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="I73">
-        <v>4.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J73">
         <v>2.4000000000000004</v>
@@ -3061,7 +3061,7 @@
         <v>16</v>
       </c>
       <c r="I74">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="J74">
         <v>1.93</v>
@@ -3131,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="I76">
-        <v>4.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J76">
         <v>1.9</v>
@@ -3586,7 +3586,7 @@
         <v>11</v>
       </c>
       <c r="I89">
-        <v>4.71</v>
+        <v>5.01</v>
       </c>
       <c r="J89">
         <v>1.25</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J99">
         <v>1.1299999999999999</v>
@@ -4041,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>4.7200000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J102">
         <v>1.8</v>
